--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Research\Synthetic Data Set\Publications\INOCON 2023 Bangalore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF843E3-E3DF-4949-9078-24AC9DE2CBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF2CB3-2142-4E6C-8EA3-2A665E135EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A11D2933-7815-4ED4-9AF4-BA11021006C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A11D2933-7815-4ED4-9AF4-BA11021006C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="66">
   <si>
     <t>EPOCH</t>
   </si>
@@ -258,6 +258,80 @@
 EPOCH : 200
 BATCH_SIZE = 200 </t>
   </si>
+  <si>
+    <t>Generator : CTGAN
+Dataset : Malware Detection
+EPOCH : 200
+BATCH_SIZE = 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generator : CTGAN
+Dataset : Malware Detection
+EPOCH : 10
+BATCH_SIZE = 50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generator : TVAE
+Dataset : Wafer Anomaly Detection
+EPOCH : 200
+BATCH_SIZE = 200
+SAMPLE_ROWS = 10000 </t>
+  </si>
+  <si>
+    <t>Generator : CTGAN
+Dataset : Malware Detection
+EPOCH : 200
+BATCH_SIZE = 200
+SAMPLE_ROWS = 10000</t>
+  </si>
+  <si>
+    <t>CTGAN : Malware Detection
+SAMPLE_ROWS = 10000</t>
+  </si>
+  <si>
+    <t>TVAE : Malware Detection
+SAMPLE_ROWS = 10000</t>
+  </si>
+  <si>
+    <t>CTGAN : Wafer Anomaly
+SAMPLE_ROWS = 10000</t>
+  </si>
+  <si>
+    <t>TVAE : Wafer Anomaly
+SAMPLE_ROWS = 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset : Malware Detection
+EPOCH : 200
+BATCH_SIZE = 200
+SAMPLE_ROWS = 10000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset : Wafer Anomaly Detection
+EPOCH : 200
+BATCH_SIZE = 200
+SAMPLE_ROWS = 10000 </t>
+  </si>
+  <si>
+    <t>Generator : TVAE
+Dataset : Malware Detection
+EPOCH : 200
+BATCH_SIZE = 200
+SAMPLE_ROWS = 10000</t>
+  </si>
+  <si>
+    <t>Generator : CTGAN
+Dataset : Wafer Anomaly Detection
+EPOCH : 200
+BATCH_SIZE = 200 
+SAMPLE_ROWS = 10000</t>
+  </si>
+  <si>
+    <t>0.760.79</t>
+  </si>
+  <si>
+    <t>NO RESULT</t>
+  </si>
 </sst>
 </file>
 
@@ -314,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -890,11 +964,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,42 +1094,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,13 +1109,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,18 +1127,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,12 +1178,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,9 +1188,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,19 +1223,104 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1204,48 +1330,141 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1563,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4816CF35-78D6-48BB-968E-CB7872463F9A}">
   <dimension ref="B1:L56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L15"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1585,55 +1804,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="H1" s="61" t="s">
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
+      <c r="H1" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="2:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="65" t="s">
+      <c r="H2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="51">
+      <c r="B3" s="36">
         <v>10</v>
       </c>
       <c r="C3" s="22">
@@ -1642,13 +1861,13 @@
       <c r="D3" s="23">
         <v>1.2</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="50">
         <v>0.19570000000000001</v>
       </c>
       <c r="F3" s="24">
         <v>28</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="36">
         <v>10</v>
       </c>
       <c r="I3" s="22">
@@ -1657,7 +1876,7 @@
       <c r="J3" s="23">
         <v>0.54</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="51">
         <v>0</v>
       </c>
       <c r="L3" s="24">
@@ -1665,31 +1884,31 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="68">
+      <c r="B4" s="52">
         <v>100</v>
       </c>
       <c r="C4" s="28">
         <v>100</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="53">
         <v>2.4666700000000001</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="54">
         <v>0.27610000000000001</v>
       </c>
       <c r="F4" s="30">
         <v>35</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="52">
         <v>100</v>
       </c>
       <c r="I4" s="28">
         <v>100</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="53">
         <v>0.66669999999999996</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="54">
         <v>0.2359</v>
       </c>
       <c r="L4" s="30">
@@ -1697,31 +1916,31 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="68">
+      <c r="B5" s="52">
         <v>200</v>
       </c>
       <c r="C5" s="28">
         <v>200</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="53">
         <v>2.3166699999999998</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="54">
         <v>0.2707</v>
       </c>
       <c r="F5" s="30">
         <v>34</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="52">
         <v>200</v>
       </c>
       <c r="I5" s="28">
         <v>200</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="53">
         <v>0.76666999999999996</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="54">
         <v>0.18490000000000001</v>
       </c>
       <c r="L5" s="30">
@@ -1729,31 +1948,31 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="71">
+      <c r="B6" s="55">
         <v>300</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="56">
         <v>500</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="57">
         <v>5.4666699999999997</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="58">
         <v>0.17150000000000001</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="59">
         <v>31</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="60">
         <v>300</v>
       </c>
       <c r="I6" s="31">
         <v>500</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="61">
         <v>0.7</v>
       </c>
-      <c r="K6" s="78">
+      <c r="K6" s="62">
         <v>0.1474</v>
       </c>
       <c r="L6" s="33">
@@ -1761,72 +1980,72 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="63">
         <v>0.193</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="64">
         <v>28</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="81">
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="63">
         <v>0.193</v>
       </c>
-      <c r="L7" s="82">
+      <c r="L7" s="64">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="H9" s="61" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="H9" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="99"/>
     </row>
     <row r="10" spans="2:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="86" t="s">
+      <c r="H10" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="67" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -1840,7 +2059,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="87">
+      <c r="B11" s="68">
         <v>10</v>
       </c>
       <c r="C11" s="22">
@@ -1849,13 +2068,13 @@
       <c r="D11" s="23">
         <v>10.73</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="50">
         <v>0.108</v>
       </c>
       <c r="F11" s="24">
         <v>131</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="68">
         <v>10</v>
       </c>
       <c r="I11" s="22">
@@ -1864,7 +2083,7 @@
       <c r="J11" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="51">
         <v>0</v>
       </c>
       <c r="L11" s="24">
@@ -1872,22 +2091,22 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="88">
+      <c r="B12" s="69">
         <v>100</v>
       </c>
       <c r="C12" s="28">
         <v>100</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="53">
         <v>71.116669999999999</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="54">
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="F12" s="30">
         <v>1</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="69">
         <v>100</v>
       </c>
       <c r="I12" s="28">
@@ -1896,7 +2115,7 @@
       <c r="J12" s="1">
         <v>10.73333</v>
       </c>
-      <c r="K12" s="89">
+      <c r="K12" s="70">
         <v>0</v>
       </c>
       <c r="L12" s="30">
@@ -1904,22 +2123,22 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="88">
+      <c r="B13" s="69">
         <v>200</v>
       </c>
       <c r="C13" s="28">
         <v>200</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="53">
         <v>109.6</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="54">
         <v>9.8500000000000004E-2</v>
       </c>
       <c r="F13" s="30">
         <v>0</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="69">
         <v>200</v>
       </c>
       <c r="I13" s="28">
@@ -1928,7 +2147,7 @@
       <c r="J13" s="29">
         <v>16.3</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="54">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="L13" s="30">
@@ -1936,68 +2155,306 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="90">
+      <c r="B14" s="71">
         <v>300</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C14" s="72">
         <v>500</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="57">
         <v>142.76667</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="73">
         <v>0.05</v>
       </c>
-      <c r="F14" s="93">
+      <c r="F14" s="74">
         <v>1</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="75">
         <v>300</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="56">
         <v>500</v>
       </c>
-      <c r="J14" s="95">
+      <c r="J14" s="76">
         <v>19.45</v>
       </c>
-      <c r="K14" s="96">
-        <v>0</v>
-      </c>
-      <c r="L14" s="75">
+      <c r="K14" s="77">
+        <v>0</v>
+      </c>
+      <c r="L14" s="59">
         <v>1504</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98">
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="78">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="64">
         <v>22</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="100">
+      <c r="I15" s="94"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="79">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="L15" s="82">
+      <c r="L15" s="64">
         <v>22</v>
       </c>
     </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:12" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="119"/>
+      <c r="G17"/>
+      <c r="H17" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
+    </row>
+    <row r="18" spans="2:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="125">
+        <v>200</v>
+      </c>
+      <c r="C19" s="126">
+        <v>200</v>
+      </c>
+      <c r="D19" s="127">
+        <v>2.1166700000000001</v>
+      </c>
+      <c r="E19" s="128">
+        <v>0.58009999999999995</v>
+      </c>
+      <c r="F19" s="129">
+        <v>28</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" s="125">
+        <v>200</v>
+      </c>
+      <c r="I19" s="126">
+        <v>200</v>
+      </c>
+      <c r="J19" s="127">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="130">
+        <v>21.45</v>
+      </c>
+      <c r="L19" s="129">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133">
+        <v>0.193</v>
+      </c>
+      <c r="F20" s="134">
+        <v>28</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="133">
+        <v>0.193</v>
+      </c>
+      <c r="L20" s="134">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="137"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="117" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22"/>
+      <c r="H22" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
+    </row>
+    <row r="23" spans="2:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="141">
+        <v>200</v>
+      </c>
+      <c r="C24" s="126">
+        <v>200</v>
+      </c>
+      <c r="D24" s="127">
+        <v>107.41667</v>
+      </c>
+      <c r="E24" s="128">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="F24" s="129">
+        <v>0</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" s="141">
+        <v>200</v>
+      </c>
+      <c r="I24" s="126">
+        <v>200</v>
+      </c>
+      <c r="J24" s="127">
+        <v>16.95</v>
+      </c>
+      <c r="K24" s="130">
+        <v>1E-4</v>
+      </c>
+      <c r="L24" s="129">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="132"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="143">
+        <v>5.67E-2</v>
+      </c>
+      <c r="F25" s="134">
+        <v>0</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="132"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="145">
+        <v>5.67E-2</v>
+      </c>
+      <c r="L25" s="134">
+        <v>0</v>
+      </c>
+    </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="H22:L22"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="B1:F1"/>
@@ -2014,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB284B11-8075-4D64-BF58-5C83BC9D0095}">
-  <dimension ref="B1:AI88"/>
+  <dimension ref="B1:AI97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2054,100 +2511,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
     </row>
     <row r="2" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
     </row>
     <row r="3" spans="2:35" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="I3" s="35" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
+      <c r="I3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="P3" s="35" t="s">
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
+      <c r="P3" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="37"/>
-      <c r="W3" s="35" t="s">
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="99"/>
+      <c r="W3" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="37"/>
-      <c r="AD3" s="35" t="s">
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="99"/>
+      <c r="AD3" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="37"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="99"/>
     </row>
     <row r="4" spans="2:35" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
@@ -2785,46 +3242,46 @@
     </row>
     <row r="11" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:35" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="I12" s="35" t="s">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="I12" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
-      <c r="P12" s="35" t="s">
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="99"/>
+      <c r="P12" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
-      <c r="W12" s="35" t="s">
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="99"/>
+      <c r="W12" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="37"/>
-      <c r="AD12" s="35" t="s">
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="99"/>
+      <c r="AD12" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="37"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="99"/>
     </row>
     <row r="13" spans="2:35" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
@@ -2920,13 +3377,13 @@
       <c r="I14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="40"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="102"/>
       <c r="P14" s="4" t="s">
         <v>3</v>
       </c>
@@ -2994,11 +3451,11 @@
       <c r="I15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="105"/>
       <c r="P15" s="4" t="s">
         <v>32</v>
       </c>
@@ -3066,11 +3523,11 @@
       <c r="I16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="105"/>
       <c r="P16" s="5" t="s">
         <v>4</v>
       </c>
@@ -3138,11 +3595,11 @@
       <c r="I17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="105"/>
       <c r="P17" s="5" t="s">
         <v>5</v>
       </c>
@@ -3210,11 +3667,11 @@
       <c r="I18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="108"/>
       <c r="P18" s="5" t="s">
         <v>6</v>
       </c>
@@ -3290,37 +3747,37 @@
       <c r="P19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q19" s="37">
         <v>0.91959999999999997</v>
       </c>
-      <c r="R19" s="48">
+      <c r="R19" s="38">
         <v>0.83</v>
       </c>
-      <c r="S19" s="48">
+      <c r="S19" s="38">
         <v>0.86</v>
       </c>
-      <c r="T19" s="48">
+      <c r="T19" s="38">
         <v>0.85</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="39">
         <v>0.96550000000000002</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X19" s="47">
+      <c r="X19" s="37">
         <v>0.86599999999999999</v>
       </c>
-      <c r="Y19" s="48">
+      <c r="Y19" s="38">
         <v>0.88</v>
       </c>
-      <c r="Z19" s="48">
+      <c r="Z19" s="38">
         <v>0.87</v>
       </c>
-      <c r="AA19" s="48">
+      <c r="AA19" s="38">
         <v>0.87</v>
       </c>
-      <c r="AB19" s="49">
+      <c r="AB19" s="39">
         <v>0.96930000000000005</v>
       </c>
       <c r="AD19" s="6" t="s">
@@ -3343,175 +3800,175 @@
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="50"/>
-      <c r="AI20" s="50"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="50"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
     </row>
     <row r="24" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:35" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="I25" s="35" t="s">
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="99"/>
+      <c r="I25" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="37"/>
-      <c r="P25" s="35" t="s">
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="99"/>
+      <c r="P25" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="37"/>
-      <c r="W25" s="35" t="s">
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="99"/>
+      <c r="W25" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="37"/>
-      <c r="AD25" s="35" t="s">
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="99"/>
+      <c r="AD25" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="37"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="99"/>
     </row>
     <row r="26" spans="2:35" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
@@ -4149,46 +4606,46 @@
     </row>
     <row r="33" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:35" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
-      <c r="I34" s="35" t="s">
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="99"/>
+      <c r="I34" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="37"/>
-      <c r="P34" s="35" t="s">
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="99"/>
+      <c r="P34" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="37"/>
-      <c r="W34" s="35" t="s">
+      <c r="Q34" s="98"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="98"/>
+      <c r="U34" s="99"/>
+      <c r="W34" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="37"/>
-      <c r="AD34" s="35" t="s">
+      <c r="X34" s="98"/>
+      <c r="Y34" s="98"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="98"/>
+      <c r="AB34" s="99"/>
+      <c r="AD34" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="37"/>
+      <c r="AE34" s="98"/>
+      <c r="AF34" s="98"/>
+      <c r="AG34" s="98"/>
+      <c r="AH34" s="98"/>
+      <c r="AI34" s="99"/>
     </row>
     <row r="35" spans="2:35" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
@@ -4240,19 +4697,19 @@
         <v>12</v>
       </c>
       <c r="W35" s="3"/>
-      <c r="X35" s="55" t="s">
+      <c r="X35" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Y35" s="56" t="s">
+      <c r="Y35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="Z35" s="56" t="s">
+      <c r="Z35" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AA35" s="56" t="s">
+      <c r="AA35" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AB35" s="57" t="s">
+      <c r="AB35" s="45" t="s">
         <v>12</v>
       </c>
       <c r="AD35" s="3"/>
@@ -4284,24 +4741,24 @@
       <c r="I36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="40"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="102"/>
       <c r="P36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q36" s="38" t="s">
+      <c r="Q36" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="40"/>
-      <c r="W36" s="53" t="s">
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="102"/>
+      <c r="W36" s="41" t="s">
         <v>3</v>
       </c>
       <c r="X36" s="29">
@@ -4322,13 +4779,13 @@
       <c r="AD36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE36" s="38" t="s">
+      <c r="AE36" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="40"/>
+      <c r="AF36" s="101"/>
+      <c r="AG36" s="101"/>
+      <c r="AH36" s="101"/>
+      <c r="AI36" s="102"/>
     </row>
     <row r="37" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
@@ -4340,18 +4797,18 @@
       <c r="F37" s="19"/>
       <c r="G37" s="20"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="43"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="105"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="43"/>
-      <c r="W37" s="53" t="s">
+      <c r="Q37" s="103"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="104"/>
+      <c r="T37" s="104"/>
+      <c r="U37" s="105"/>
+      <c r="W37" s="41" t="s">
         <v>32</v>
       </c>
       <c r="X37" s="29">
@@ -4370,11 +4827,11 @@
         <v>1</v>
       </c>
       <c r="AD37" s="4"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="43"/>
+      <c r="AE37" s="103"/>
+      <c r="AF37" s="104"/>
+      <c r="AG37" s="104"/>
+      <c r="AH37" s="104"/>
+      <c r="AI37" s="105"/>
     </row>
     <row r="38" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
@@ -4388,20 +4845,20 @@
       <c r="I38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="43"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="105"/>
       <c r="P38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="43"/>
-      <c r="W38" s="54" t="s">
+      <c r="Q38" s="103"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="105"/>
+      <c r="W38" s="42" t="s">
         <v>4</v>
       </c>
       <c r="X38" s="29">
@@ -4422,11 +4879,11 @@
       <c r="AD38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AE38" s="41"/>
-      <c r="AF38" s="42"/>
-      <c r="AG38" s="42"/>
-      <c r="AH38" s="42"/>
-      <c r="AI38" s="43"/>
+      <c r="AE38" s="103"/>
+      <c r="AF38" s="104"/>
+      <c r="AG38" s="104"/>
+      <c r="AH38" s="104"/>
+      <c r="AI38" s="105"/>
     </row>
     <row r="39" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
@@ -4440,20 +4897,20 @@
       <c r="I39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="43"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="105"/>
       <c r="P39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="43"/>
-      <c r="W39" s="54" t="s">
+      <c r="Q39" s="103"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="104"/>
+      <c r="U39" s="105"/>
+      <c r="W39" s="42" t="s">
         <v>5</v>
       </c>
       <c r="X39" s="29">
@@ -4474,11 +4931,11 @@
       <c r="AD39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
-      <c r="AI39" s="43"/>
+      <c r="AE39" s="103"/>
+      <c r="AF39" s="104"/>
+      <c r="AG39" s="104"/>
+      <c r="AH39" s="104"/>
+      <c r="AI39" s="105"/>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
@@ -4492,20 +4949,20 @@
       <c r="I40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="44"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="46"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="108"/>
       <c r="P40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="46"/>
-      <c r="W40" s="54" t="s">
+      <c r="Q40" s="106"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="108"/>
+      <c r="W40" s="42" t="s">
         <v>6</v>
       </c>
       <c r="X40" s="29">
@@ -4526,11 +4983,11 @@
       <c r="AD40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AE40" s="44"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="46"/>
+      <c r="AE40" s="106"/>
+      <c r="AF40" s="107"/>
+      <c r="AG40" s="107"/>
+      <c r="AH40" s="107"/>
+      <c r="AI40" s="108"/>
     </row>
     <row r="41" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
@@ -4586,92 +5043,92 @@
     </row>
     <row r="45" spans="2:35" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="117"/>
-      <c r="M46" s="117"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="117"/>
-      <c r="S46" s="117"/>
-      <c r="T46" s="117"/>
-      <c r="U46" s="117"/>
-      <c r="V46" s="117"/>
-      <c r="W46" s="117"/>
-      <c r="X46" s="117"/>
-      <c r="Y46" s="117"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="111"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="111"/>
     </row>
     <row r="47" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
-      <c r="K47" s="117"/>
-      <c r="L47" s="117"/>
-      <c r="M47" s="117"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="117"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="117"/>
-      <c r="S47" s="117"/>
-      <c r="T47" s="117"/>
-      <c r="U47" s="117"/>
-      <c r="V47" s="117"/>
-      <c r="W47" s="117"/>
-      <c r="X47" s="117"/>
-      <c r="Y47" s="117"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="111"/>
+      <c r="Y47" s="111"/>
     </row>
     <row r="48" spans="2:35" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="37"/>
-      <c r="I48" s="35" t="s">
+      <c r="B48" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="99"/>
+      <c r="I48" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="37"/>
-      <c r="P48" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="37"/>
-      <c r="W48" s="35" t="s">
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="99"/>
+      <c r="P48" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q48" s="98"/>
+      <c r="R48" s="98"/>
+      <c r="S48" s="98"/>
+      <c r="T48" s="98"/>
+      <c r="U48" s="99"/>
+      <c r="W48" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="37"/>
+      <c r="X48" s="98"/>
+      <c r="Y48" s="98"/>
+      <c r="Z48" s="98"/>
+      <c r="AA48" s="98"/>
+      <c r="AB48" s="99"/>
     </row>
     <row r="49" spans="2:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
@@ -5185,54 +5642,54 @@
     </row>
     <row r="56" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="2:28" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="37"/>
-      <c r="I57" s="35" t="s">
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="99"/>
+      <c r="I57" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="37"/>
-      <c r="P57" s="35" t="s">
+      <c r="J57" s="98"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="99"/>
+      <c r="P57" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="37"/>
-      <c r="W57" s="35" t="s">
+      <c r="Q57" s="98"/>
+      <c r="R57" s="98"/>
+      <c r="S57" s="98"/>
+      <c r="T57" s="98"/>
+      <c r="U57" s="99"/>
+      <c r="W57" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="36"/>
-      <c r="AB57" s="37"/>
+      <c r="X57" s="98"/>
+      <c r="Y57" s="98"/>
+      <c r="Z57" s="98"/>
+      <c r="AA57" s="98"/>
+      <c r="AB57" s="99"/>
     </row>
     <row r="58" spans="2:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="56" t="s">
+      <c r="E58" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="56" t="s">
+      <c r="F58" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="57" t="s">
+      <c r="G58" s="45" t="s">
         <v>34</v>
       </c>
       <c r="I58" s="3"/>
@@ -5285,16 +5742,16 @@
       </c>
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="40"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="102"/>
       <c r="I59" s="4" t="s">
         <v>3</v>
       </c>
@@ -5351,14 +5808,14 @@
       </c>
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="43"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="105"/>
       <c r="I60" s="4" t="s">
         <v>32</v>
       </c>
@@ -5415,14 +5872,14 @@
       </c>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="105"/>
       <c r="I61" s="5" t="s">
         <v>4</v>
       </c>
@@ -5479,14 +5936,14 @@
       </c>
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="43"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="105"/>
       <c r="I62" s="5" t="s">
         <v>5</v>
       </c>
@@ -5543,14 +6000,14 @@
       </c>
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="46"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="108"/>
       <c r="I63" s="5" t="s">
         <v>6</v>
       </c>
@@ -5618,37 +6075,37 @@
       <c r="I64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J64" s="58">
+      <c r="J64" s="31">
         <v>0.76780000000000004</v>
       </c>
-      <c r="K64" s="59">
-        <v>0</v>
-      </c>
-      <c r="L64" s="59">
-        <v>0</v>
-      </c>
-      <c r="M64" s="59">
-        <v>0</v>
-      </c>
-      <c r="N64" s="60">
+      <c r="K64" s="32">
+        <v>0</v>
+      </c>
+      <c r="L64" s="32">
+        <v>0</v>
+      </c>
+      <c r="M64" s="32">
+        <v>0</v>
+      </c>
+      <c r="N64" s="33">
         <v>0.86970000000000003</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q64" s="58">
+      <c r="Q64" s="31">
         <v>0.75890000000000002</v>
       </c>
-      <c r="R64" s="59">
-        <v>0</v>
-      </c>
-      <c r="S64" s="59">
-        <v>0</v>
-      </c>
-      <c r="T64" s="59">
-        <v>0</v>
-      </c>
-      <c r="U64" s="60">
+      <c r="R64" s="32">
+        <v>0</v>
+      </c>
+      <c r="S64" s="32">
+        <v>0</v>
+      </c>
+      <c r="T64" s="32">
+        <v>0</v>
+      </c>
+      <c r="U64" s="33">
         <v>0.84670000000000001</v>
       </c>
       <c r="W64" s="6" t="s">
@@ -5671,117 +6128,117 @@
       </c>
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B65" s="52"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="119"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="119"/>
-      <c r="M65" s="119"/>
-      <c r="N65" s="119"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="119"/>
-      <c r="R65" s="119"/>
-      <c r="S65" s="119"/>
-      <c r="T65" s="119"/>
-      <c r="U65" s="119"/>
-      <c r="W65" s="52"/>
-      <c r="X65" s="50"/>
-      <c r="Y65" s="50"/>
-      <c r="Z65" s="50"/>
-      <c r="AA65" s="50"/>
-      <c r="AB65" s="50"/>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B66" s="52"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="119"/>
-      <c r="K66" s="119"/>
-      <c r="L66" s="119"/>
-      <c r="M66" s="119"/>
-      <c r="N66" s="119"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="119"/>
-      <c r="R66" s="119"/>
-      <c r="S66" s="119"/>
-      <c r="T66" s="119"/>
-      <c r="U66" s="119"/>
-      <c r="W66" s="52"/>
-      <c r="X66" s="50"/>
-      <c r="Y66" s="50"/>
-      <c r="Z66" s="50"/>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="50"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+    </row>
+    <row r="66" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="40"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B67" s="52"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="119"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="119"/>
-      <c r="M67" s="119"/>
-      <c r="N67" s="119"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="119"/>
-      <c r="R67" s="119"/>
-      <c r="S67" s="119"/>
-      <c r="T67" s="119"/>
-      <c r="U67" s="119"/>
-      <c r="W67" s="52"/>
-      <c r="X67" s="50"/>
-      <c r="Y67" s="50"/>
-      <c r="Z67" s="50"/>
-      <c r="AA67" s="50"/>
-      <c r="AB67" s="50"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
     </row>
     <row r="71" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="2:28" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="37"/>
-      <c r="I72" s="35" t="s">
+      <c r="C72" s="115"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="116"/>
+      <c r="I72" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="37"/>
-      <c r="P72" s="35" t="s">
+      <c r="J72" s="115"/>
+      <c r="K72" s="115"/>
+      <c r="L72" s="115"/>
+      <c r="M72" s="115"/>
+      <c r="N72" s="116"/>
+      <c r="P72" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="37"/>
-      <c r="W72" s="35" t="s">
+      <c r="Q72" s="115"/>
+      <c r="R72" s="115"/>
+      <c r="S72" s="115"/>
+      <c r="T72" s="115"/>
+      <c r="U72" s="116"/>
+      <c r="W72" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="36"/>
-      <c r="Z72" s="36"/>
-      <c r="AA72" s="36"/>
-      <c r="AB72" s="37"/>
+      <c r="X72" s="115"/>
+      <c r="Y72" s="115"/>
+      <c r="Z72" s="115"/>
+      <c r="AA72" s="115"/>
+      <c r="AB72" s="116"/>
     </row>
     <row r="73" spans="2:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3"/>
@@ -6295,38 +6752,38 @@
     </row>
     <row r="80" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="81" spans="2:28" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="37"/>
-      <c r="I81" s="35" t="s">
+      <c r="C81" s="98"/>
+      <c r="D81" s="98"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="99"/>
+      <c r="I81" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="37"/>
-      <c r="P81" s="35" t="s">
+      <c r="J81" s="98"/>
+      <c r="K81" s="98"/>
+      <c r="L81" s="98"/>
+      <c r="M81" s="98"/>
+      <c r="N81" s="99"/>
+      <c r="P81" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="37"/>
-      <c r="W81" s="35" t="s">
+      <c r="Q81" s="98"/>
+      <c r="R81" s="98"/>
+      <c r="S81" s="98"/>
+      <c r="T81" s="98"/>
+      <c r="U81" s="99"/>
+      <c r="W81" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="36"/>
-      <c r="Z81" s="36"/>
-      <c r="AA81" s="36"/>
-      <c r="AB81" s="37"/>
+      <c r="X81" s="98"/>
+      <c r="Y81" s="98"/>
+      <c r="Z81" s="98"/>
+      <c r="AA81" s="98"/>
+      <c r="AB81" s="99"/>
     </row>
     <row r="82" spans="2:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="3"/>
@@ -6398,23 +6855,23 @@
       <c r="B83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="40"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="102"/>
       <c r="I83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="38" t="s">
+      <c r="J83" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="40"/>
+      <c r="K83" s="101"/>
+      <c r="L83" s="101"/>
+      <c r="M83" s="101"/>
+      <c r="N83" s="102"/>
       <c r="P83" s="4" t="s">
         <v>3</v>
       </c>
@@ -6436,31 +6893,31 @@
       <c r="W83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X83" s="38" t="s">
+      <c r="X83" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="Y83" s="39"/>
-      <c r="Z83" s="39"/>
-      <c r="AA83" s="39"/>
-      <c r="AB83" s="40"/>
+      <c r="Y83" s="101"/>
+      <c r="Z83" s="101"/>
+      <c r="AA83" s="101"/>
+      <c r="AB83" s="102"/>
     </row>
     <row r="84" spans="2:28" ht="15" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="43"/>
+      <c r="C84" s="103"/>
+      <c r="D84" s="104"/>
+      <c r="E84" s="104"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="105"/>
       <c r="I84" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J84" s="41"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="43"/>
+      <c r="J84" s="103"/>
+      <c r="K84" s="104"/>
+      <c r="L84" s="104"/>
+      <c r="M84" s="104"/>
+      <c r="N84" s="105"/>
       <c r="P84" s="4" t="s">
         <v>32</v>
       </c>
@@ -6482,29 +6939,29 @@
       <c r="W84" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X84" s="41"/>
-      <c r="Y84" s="42"/>
-      <c r="Z84" s="42"/>
-      <c r="AA84" s="42"/>
-      <c r="AB84" s="43"/>
+      <c r="X84" s="103"/>
+      <c r="Y84" s="104"/>
+      <c r="Z84" s="104"/>
+      <c r="AA84" s="104"/>
+      <c r="AB84" s="105"/>
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B85" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="41"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="43"/>
+      <c r="C85" s="103"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="104"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="105"/>
       <c r="I85" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J85" s="41"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="43"/>
+      <c r="J85" s="103"/>
+      <c r="K85" s="104"/>
+      <c r="L85" s="104"/>
+      <c r="M85" s="104"/>
+      <c r="N85" s="105"/>
       <c r="P85" s="5" t="s">
         <v>4</v>
       </c>
@@ -6526,29 +6983,29 @@
       <c r="W85" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X85" s="41"/>
-      <c r="Y85" s="42"/>
-      <c r="Z85" s="42"/>
-      <c r="AA85" s="42"/>
-      <c r="AB85" s="43"/>
+      <c r="X85" s="103"/>
+      <c r="Y85" s="104"/>
+      <c r="Z85" s="104"/>
+      <c r="AA85" s="104"/>
+      <c r="AB85" s="105"/>
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="43"/>
+      <c r="C86" s="103"/>
+      <c r="D86" s="104"/>
+      <c r="E86" s="104"/>
+      <c r="F86" s="104"/>
+      <c r="G86" s="105"/>
       <c r="I86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J86" s="41"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="43"/>
+      <c r="J86" s="103"/>
+      <c r="K86" s="104"/>
+      <c r="L86" s="104"/>
+      <c r="M86" s="104"/>
+      <c r="N86" s="105"/>
       <c r="P86" s="5" t="s">
         <v>5</v>
       </c>
@@ -6570,29 +7027,29 @@
       <c r="W86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X86" s="41"/>
-      <c r="Y86" s="42"/>
-      <c r="Z86" s="42"/>
-      <c r="AA86" s="42"/>
-      <c r="AB86" s="43"/>
+      <c r="X86" s="103"/>
+      <c r="Y86" s="104"/>
+      <c r="Z86" s="104"/>
+      <c r="AA86" s="104"/>
+      <c r="AB86" s="105"/>
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B87" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="44"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="46"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="108"/>
       <c r="I87" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J87" s="44"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="46"/>
+      <c r="J87" s="106"/>
+      <c r="K87" s="107"/>
+      <c r="L87" s="107"/>
+      <c r="M87" s="107"/>
+      <c r="N87" s="108"/>
       <c r="P87" s="5" t="s">
         <v>6</v>
       </c>
@@ -6614,11 +7071,11 @@
       <c r="W87" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="X87" s="44"/>
-      <c r="Y87" s="45"/>
-      <c r="Z87" s="45"/>
-      <c r="AA87" s="45"/>
-      <c r="AB87" s="46"/>
+      <c r="X87" s="106"/>
+      <c r="Y87" s="107"/>
+      <c r="Z87" s="107"/>
+      <c r="AA87" s="107"/>
+      <c r="AB87" s="108"/>
     </row>
     <row r="88" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
@@ -6664,31 +7121,507 @@
       <c r="AA88" s="16"/>
       <c r="AB88" s="17"/>
     </row>
+    <row r="89" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="2:28" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
+      <c r="E90" s="115"/>
+      <c r="F90" s="115"/>
+      <c r="G90" s="116"/>
+      <c r="I90" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="J90" s="115"/>
+      <c r="K90" s="115"/>
+      <c r="L90" s="115"/>
+      <c r="M90" s="115"/>
+      <c r="N90" s="116"/>
+      <c r="P90" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q90" s="115"/>
+      <c r="R90" s="115"/>
+      <c r="S90" s="115"/>
+      <c r="T90" s="115"/>
+      <c r="U90" s="116"/>
+      <c r="W90" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="X90" s="115"/>
+      <c r="Y90" s="115"/>
+      <c r="Z90" s="115"/>
+      <c r="AA90" s="115"/>
+      <c r="AB90" s="116"/>
+    </row>
+    <row r="91" spans="2:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="3"/>
+      <c r="C91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U91" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W91" s="3"/>
+      <c r="X91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB91" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="22">
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="D92" s="23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E92" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="F92" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="G92" s="24">
+        <v>0.6724</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="146">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="K92" s="147">
+        <v>0.97</v>
+      </c>
+      <c r="L92" s="147">
+        <v>0.85</v>
+      </c>
+      <c r="M92" s="147">
+        <v>0.91</v>
+      </c>
+      <c r="N92" s="148">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q92" s="22">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="R92" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="S92" s="23">
+        <v>0</v>
+      </c>
+      <c r="T92" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="U92" s="24">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="W92" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X92" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y92" s="101"/>
+      <c r="Z92" s="101"/>
+      <c r="AA92" s="101"/>
+      <c r="AB92" s="102"/>
+    </row>
+    <row r="93" spans="2:28" ht="15" x14ac:dyDescent="0.3">
+      <c r="B93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="25">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D93" s="26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E93" s="26">
+        <v>0.76</v>
+      </c>
+      <c r="F93" s="26">
+        <v>0.66</v>
+      </c>
+      <c r="G93" s="27">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" s="149">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="K93" s="150">
+        <v>0.94</v>
+      </c>
+      <c r="L93" s="150">
+        <v>0.89</v>
+      </c>
+      <c r="M93" s="150">
+        <v>0.91</v>
+      </c>
+      <c r="N93" s="151">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q93" s="34">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="R93" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="S93" s="26">
+        <v>0.23</v>
+      </c>
+      <c r="T93" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="U93" s="27">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="W93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X93" s="103"/>
+      <c r="Y93" s="104"/>
+      <c r="Z93" s="104"/>
+      <c r="AA93" s="104"/>
+      <c r="AB93" s="105"/>
+    </row>
+    <row r="94" spans="2:28" ht="15" x14ac:dyDescent="0.3">
+      <c r="B94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="34">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="D94" s="29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E94" s="29">
+        <v>0.72</v>
+      </c>
+      <c r="F94" s="29">
+        <v>0.64</v>
+      </c>
+      <c r="G94" s="30">
+        <v>0.62128000000000005</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="152">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="K94" s="153">
+        <v>0.96</v>
+      </c>
+      <c r="L94" s="153">
+        <v>0.86</v>
+      </c>
+      <c r="M94" s="153">
+        <v>0.91</v>
+      </c>
+      <c r="N94" s="154">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="28">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="R94" s="29">
+        <v>0.19</v>
+      </c>
+      <c r="S94" s="29">
+        <v>0.19</v>
+      </c>
+      <c r="T94" s="29">
+        <v>0.19</v>
+      </c>
+      <c r="U94" s="30">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="W94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="103"/>
+      <c r="Y94" s="104"/>
+      <c r="Z94" s="104"/>
+      <c r="AA94" s="104"/>
+      <c r="AB94" s="105"/>
+    </row>
+    <row r="95" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="28">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D95" s="29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E95" s="29">
+        <v>0.77</v>
+      </c>
+      <c r="F95" s="29">
+        <v>0.66</v>
+      </c>
+      <c r="G95" s="30">
+        <v>0.64410000000000001</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" s="152">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="K95" s="153">
+        <v>0.96</v>
+      </c>
+      <c r="L95" s="153">
+        <v>0.86</v>
+      </c>
+      <c r="M95" s="153">
+        <v>0.91</v>
+      </c>
+      <c r="N95" s="154">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q95" s="28">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="R95" s="29">
+        <v>0</v>
+      </c>
+      <c r="S95" s="29">
+        <v>0</v>
+      </c>
+      <c r="T95" s="29">
+        <v>0</v>
+      </c>
+      <c r="U95" s="30">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="W95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X95" s="103"/>
+      <c r="Y95" s="104"/>
+      <c r="Z95" s="104"/>
+      <c r="AA95" s="104"/>
+      <c r="AB95" s="105"/>
+    </row>
+    <row r="96" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="28">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="D96" s="29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E96" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="F96" s="29">
+        <v>0.71</v>
+      </c>
+      <c r="G96" s="30">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="152">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="K96" s="153">
+        <v>0.94</v>
+      </c>
+      <c r="L96" s="153">
+        <v>0.89</v>
+      </c>
+      <c r="M96" s="153">
+        <v>0.91</v>
+      </c>
+      <c r="N96" s="154">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q96" s="28">
+        <v>0.58360000000000001</v>
+      </c>
+      <c r="R96" s="29">
+        <v>0.16</v>
+      </c>
+      <c r="S96" s="29">
+        <v>0.82</v>
+      </c>
+      <c r="T96" s="29">
+        <v>0.27</v>
+      </c>
+      <c r="U96" s="30">
+        <v>0.6038</v>
+      </c>
+      <c r="W96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X96" s="106"/>
+      <c r="Y96" s="107"/>
+      <c r="Z96" s="107"/>
+      <c r="AA96" s="107"/>
+      <c r="AB96" s="108"/>
+    </row>
+    <row r="97" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="31">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="D97" s="32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E97" s="32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F97" s="32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G97" s="33">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97" s="37">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="K97" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="L97" s="38">
+        <v>0.89</v>
+      </c>
+      <c r="M97" s="38">
+        <v>0.92</v>
+      </c>
+      <c r="N97" s="39">
+        <v>0.9698</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q97" s="31">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="R97" s="32">
+        <v>0.16</v>
+      </c>
+      <c r="S97" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="T97" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="U97" s="33">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="W97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X97" s="31"/>
+      <c r="Y97" s="32"/>
+      <c r="Z97" s="32"/>
+      <c r="AA97" s="32"/>
+      <c r="AB97" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="C83:G87"/>
-    <mergeCell ref="J83:N87"/>
-    <mergeCell ref="X83:AB87"/>
-    <mergeCell ref="W72:AB72"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="I81:N81"/>
-    <mergeCell ref="P81:U81"/>
-    <mergeCell ref="W81:AB81"/>
-    <mergeCell ref="C59:G63"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="P72:U72"/>
-    <mergeCell ref="W48:AB48"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="I57:N57"/>
-    <mergeCell ref="P57:U57"/>
-    <mergeCell ref="W57:AB57"/>
-    <mergeCell ref="B46:Y47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="P48:U48"/>
-    <mergeCell ref="J36:N40"/>
-    <mergeCell ref="Q36:U40"/>
+  <mergeCells count="51">
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="I90:N90"/>
+    <mergeCell ref="P90:U90"/>
+    <mergeCell ref="W90:AB90"/>
+    <mergeCell ref="X92:AB96"/>
+    <mergeCell ref="P25:U25"/>
+    <mergeCell ref="W25:AB25"/>
+    <mergeCell ref="AD25:AI25"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="P34:U34"/>
+    <mergeCell ref="W34:AB34"/>
+    <mergeCell ref="AD34:AI34"/>
     <mergeCell ref="AE36:AI40"/>
     <mergeCell ref="B1:Y2"/>
     <mergeCell ref="B3:G3"/>
@@ -6705,13 +7638,29 @@
     <mergeCell ref="P12:U12"/>
     <mergeCell ref="W12:AB12"/>
     <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="P25:U25"/>
-    <mergeCell ref="W25:AB25"/>
-    <mergeCell ref="AD25:AI25"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="P34:U34"/>
-    <mergeCell ref="W34:AB34"/>
-    <mergeCell ref="AD34:AI34"/>
+    <mergeCell ref="B46:Y47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="P48:U48"/>
+    <mergeCell ref="J36:N40"/>
+    <mergeCell ref="Q36:U40"/>
+    <mergeCell ref="C59:G63"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="P72:U72"/>
+    <mergeCell ref="W48:AB48"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="P57:U57"/>
+    <mergeCell ref="W57:AB57"/>
+    <mergeCell ref="C83:G87"/>
+    <mergeCell ref="J83:N87"/>
+    <mergeCell ref="X83:AB87"/>
+    <mergeCell ref="W72:AB72"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="I81:N81"/>
+    <mergeCell ref="P81:U81"/>
+    <mergeCell ref="W81:AB81"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6720,10 +7669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5701CE49-84B6-4E65-9EFE-D325D78B9C67}">
-  <dimension ref="B1:S14"/>
+  <dimension ref="B1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6733,36 +7682,36 @@
     <col min="3" max="3" width="9.77734375" style="1" customWidth="1"/>
     <col min="4" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="0.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" customWidth="1"/>
-    <col min="10" max="13" width="8.88671875" style="1"/>
+    <col min="9" max="10" width="9.88671875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="1"/>
     <col min="14" max="14" width="0.5546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.77734375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="104"/>
-      <c r="I1" s="102" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
+      <c r="I1" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
-      <c r="O1" s="102" t="s">
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
+      <c r="O1" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="104"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="114"/>
     </row>
     <row r="2" spans="2:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
@@ -6783,7 +7732,7 @@
       <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="81" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -6798,7 +7747,7 @@
       <c r="M2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="81" t="s">
         <v>8</v>
       </c>
       <c r="P2" s="7" t="s">
@@ -6818,51 +7767,51 @@
       <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="106">
+      <c r="C3" s="82">
         <v>0.98340000000000005</v>
       </c>
-      <c r="D3" s="107">
+      <c r="D3" s="83">
         <v>0.97</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="83">
         <v>1</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="83">
         <v>0.98</v>
       </c>
-      <c r="G3" s="108">
+      <c r="G3" s="84">
         <v>1</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="106">
+      <c r="H3" s="85"/>
+      <c r="I3" s="82">
         <v>0.99450000000000005</v>
       </c>
-      <c r="J3" s="107">
+      <c r="J3" s="83">
         <v>0.99</v>
       </c>
-      <c r="K3" s="107">
+      <c r="K3" s="83">
         <v>1</v>
       </c>
-      <c r="L3" s="107">
+      <c r="L3" s="83">
         <v>0.99</v>
       </c>
-      <c r="M3" s="108">
+      <c r="M3" s="84">
         <v>1</v>
       </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="110">
+      <c r="N3" s="85"/>
+      <c r="O3" s="86">
         <v>1</v>
       </c>
-      <c r="P3" s="111">
+      <c r="P3" s="87">
         <v>1</v>
       </c>
-      <c r="Q3" s="111">
+      <c r="Q3" s="87">
         <v>1</v>
       </c>
-      <c r="R3" s="111">
+      <c r="R3" s="87">
         <v>1</v>
       </c>
-      <c r="S3" s="112">
+      <c r="S3" s="88">
         <v>1</v>
       </c>
     </row>
@@ -6870,51 +7819,51 @@
       <c r="B4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="86">
         <v>0.70989999999999998</v>
       </c>
-      <c r="D4" s="111">
+      <c r="D4" s="87">
         <v>0.69</v>
       </c>
-      <c r="E4" s="111">
+      <c r="E4" s="87">
         <v>0.73</v>
       </c>
-      <c r="F4" s="111">
+      <c r="F4" s="87">
         <v>0.71</v>
       </c>
-      <c r="G4" s="112">
+      <c r="G4" s="88">
         <v>0.88</v>
       </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="110">
+      <c r="H4" s="85"/>
+      <c r="I4" s="86">
         <v>0.70730000000000004</v>
       </c>
-      <c r="J4" s="111">
+      <c r="J4" s="87">
         <v>0.63</v>
       </c>
-      <c r="K4" s="111">
+      <c r="K4" s="87">
         <v>0.79</v>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="87">
         <v>0.7</v>
       </c>
-      <c r="M4" s="112">
+      <c r="M4" s="88">
         <v>0.84</v>
       </c>
-      <c r="N4" s="109"/>
-      <c r="O4" s="110">
+      <c r="N4" s="85"/>
+      <c r="O4" s="86">
         <v>0.73550000000000004</v>
       </c>
-      <c r="P4" s="111">
+      <c r="P4" s="87">
         <v>0.7</v>
       </c>
-      <c r="Q4" s="111">
+      <c r="Q4" s="87">
         <v>0.79</v>
       </c>
-      <c r="R4" s="111">
+      <c r="R4" s="87">
         <v>0.74</v>
       </c>
-      <c r="S4" s="112">
+      <c r="S4" s="88">
         <v>0.9</v>
       </c>
     </row>
@@ -6922,51 +7871,51 @@
       <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="89">
         <v>0.95909999999999995</v>
       </c>
-      <c r="D5" s="114">
+      <c r="D5" s="90">
         <v>0.94</v>
       </c>
-      <c r="E5" s="114">
+      <c r="E5" s="90">
         <v>0.99</v>
       </c>
-      <c r="F5" s="114">
+      <c r="F5" s="90">
         <v>0.96</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="91">
         <v>0.94</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="113">
+      <c r="H5" s="85"/>
+      <c r="I5" s="89">
         <v>0.9617</v>
       </c>
-      <c r="J5" s="114">
+      <c r="J5" s="90">
         <v>0.93</v>
       </c>
-      <c r="K5" s="114">
+      <c r="K5" s="90">
         <v>1</v>
       </c>
-      <c r="L5" s="114">
+      <c r="L5" s="90">
         <v>0.96</v>
       </c>
-      <c r="M5" s="115">
+      <c r="M5" s="91">
         <v>0.97</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="113">
+      <c r="N5" s="85"/>
+      <c r="O5" s="89">
         <v>0.96860000000000002</v>
       </c>
-      <c r="P5" s="114">
+      <c r="P5" s="90">
         <v>0.94</v>
       </c>
-      <c r="Q5" s="114">
+      <c r="Q5" s="90">
         <v>1</v>
       </c>
-      <c r="R5" s="114">
+      <c r="R5" s="90">
         <v>0.97</v>
       </c>
-      <c r="S5" s="115">
+      <c r="S5" s="91">
         <v>0.98</v>
       </c>
     </row>
@@ -6990,14 +7939,14 @@
     </row>
     <row r="8" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:19" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114"/>
     </row>
     <row r="10" spans="2:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
@@ -7023,19 +7972,19 @@
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="106">
+      <c r="C11" s="82">
         <v>0.85340000000000005</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="83">
         <v>0.86</v>
       </c>
-      <c r="E11" s="107">
+      <c r="E11" s="83">
         <v>0.85</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="83">
         <v>0.86</v>
       </c>
-      <c r="G11" s="108">
+      <c r="G11" s="84">
         <v>0.88</v>
       </c>
     </row>
@@ -7043,19 +7992,19 @@
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="86">
         <v>0.77629999999999999</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D12" s="87">
         <v>0.73</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="87">
         <v>0.85</v>
       </c>
-      <c r="F12" s="111">
+      <c r="F12" s="87">
         <v>0.78</v>
       </c>
-      <c r="G12" s="112">
+      <c r="G12" s="88">
         <v>0.8</v>
       </c>
     </row>
@@ -7063,19 +8012,19 @@
       <c r="B13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="89">
         <v>0.99670000000000003</v>
       </c>
-      <c r="D13" s="114">
+      <c r="D13" s="90">
         <v>1</v>
       </c>
-      <c r="E13" s="114">
+      <c r="E13" s="90">
         <v>1</v>
       </c>
-      <c r="F13" s="114">
+      <c r="F13" s="90">
         <v>1</v>
       </c>
-      <c r="G13" s="115">
+      <c r="G13" s="91">
         <v>1</v>
       </c>
     </row>
@@ -7087,12 +8036,273 @@
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
     </row>
+    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:14" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="114"/>
+      <c r="I17" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="159"/>
+    </row>
+    <row r="18" spans="2:14" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="82">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D19" s="83">
+        <v>0.98</v>
+      </c>
+      <c r="E19" s="83">
+        <v>1</v>
+      </c>
+      <c r="F19" s="83">
+        <v>0.99</v>
+      </c>
+      <c r="G19" s="84">
+        <v>1</v>
+      </c>
+      <c r="H19" s="85"/>
+      <c r="I19" s="82">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="J19" s="83">
+        <v>0.86</v>
+      </c>
+      <c r="K19" s="83">
+        <v>0.86</v>
+      </c>
+      <c r="L19" s="83">
+        <v>0.86</v>
+      </c>
+      <c r="M19" s="84">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="86">
+        <v>0.5403</v>
+      </c>
+      <c r="D20" s="87">
+        <v>0.54</v>
+      </c>
+      <c r="E20" s="87">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="87">
+        <v>0.61</v>
+      </c>
+      <c r="G20" s="88">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="J20" s="87">
+        <v>0.83</v>
+      </c>
+      <c r="K20" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="87"/>
+      <c r="M20" s="88">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="89">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="D21" s="90">
+        <v>0.88</v>
+      </c>
+      <c r="E21" s="90">
+        <v>0.99</v>
+      </c>
+      <c r="F21" s="90">
+        <v>0.93</v>
+      </c>
+      <c r="G21" s="91">
+        <v>0.93</v>
+      </c>
+      <c r="H21" s="85"/>
+      <c r="I21" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="157"/>
+    </row>
+    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="33"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:14" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="114"/>
+    </row>
+    <row r="26" spans="2:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="82">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="D27" s="83">
+        <v>0.86</v>
+      </c>
+      <c r="E27" s="83">
+        <v>0.86</v>
+      </c>
+      <c r="F27" s="83">
+        <v>0.86</v>
+      </c>
+      <c r="G27" s="84">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="86">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="D28" s="87">
+        <v>0.83</v>
+      </c>
+      <c r="E28" s="87">
+        <v>0.76</v>
+      </c>
+      <c r="F28" s="87">
+        <v>0.79</v>
+      </c>
+      <c r="G28" s="88">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="157"/>
+    </row>
+    <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I17:M17"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
